--- a/compare_models/other_models_ts.xlsx
+++ b/compare_models/other_models_ts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD91C4C-B56B-495C-B67C-9855BD612C3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B72B3-8879-4D86-B723-832D6AEDA945}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="930" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="255" windowWidth="16245" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MLP  (myself,l=2,node=512,epoch=1000)</t>
+    <t>MLP  (myself,l=2,node=512,epoch=1000,2000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +454,7 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,6 +743,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -757,6 +758,9 @@
       <c r="K18">
         <v>8.5989000000000004</v>
       </c>
+      <c r="M18">
+        <v>8.4964999999999993</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -771,6 +775,9 @@
       <c r="K19">
         <v>24.0014</v>
       </c>
+      <c r="M19">
+        <v>23.680499999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -784,6 +791,9 @@
       </c>
       <c r="K20">
         <v>35.424399999999999</v>
+      </c>
+      <c r="M20">
+        <v>35.090000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1901,6 +1911,62 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="G84:J84"/>
     <mergeCell ref="B90:E90"/>
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="H90:K90"/>
@@ -1908,64 +1974,9 @@
     <mergeCell ref="B95:F95"/>
     <mergeCell ref="G95:J95"/>
     <mergeCell ref="K95:N95"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>